--- a/test/taxonomy.xlsx
+++ b/test/taxonomy.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">serviceLevelDownType2</t>
   </si>
   <si>
-    <t xml:space="preserve">discountGroup</t>
+    <t xml:space="preserve">standardServiceTypeGroup</t>
   </si>
   <si>
     <t xml:space="preserve">AL1</t>
@@ -425,10 +425,10 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.0078125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.01953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.34"/>
